--- a/public/reg_compras_xpertcont.xlsx
+++ b/public/reg_compras_xpertcont.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovivasar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\ovivasar\DOC QR Web\xpertcont-frontend-react\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1823CC-BE48-4DA2-A505-1BA6DA8C29D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B74770-B39A-474F-AD6A-AD1B3EE2000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{59060B67-7890-4C12-9E4E-36FF2D67D3F7}"/>
   </bookViews>
@@ -143,21 +143,12 @@
     <t>FA05</t>
   </si>
   <si>
-    <t>MAKRO SUPERMAYORISTA S.A.</t>
-  </si>
-  <si>
     <t>E001</t>
   </si>
   <si>
-    <t>BUENO TUERO KARLA CINTHYA</t>
-  </si>
-  <si>
     <t>FN11</t>
   </si>
   <si>
-    <t>H&amp;M Hennes &amp; Mauritz S.A.C</t>
-  </si>
-  <si>
     <t>emision</t>
   </si>
   <si>
@@ -234,6 +225,15 @@
   </si>
   <si>
     <t>IDBSS</t>
+  </si>
+  <si>
+    <t>EJEMPLO COMPRA CON IGV</t>
+  </si>
+  <si>
+    <t>EJEMPLO COMPRA NOGRAV</t>
+  </si>
+  <si>
+    <t>EJEMPLO NOTA CREDITO CON IGV</t>
   </si>
 </sst>
 </file>
@@ -618,9 +618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9532F2-9F8B-4421-9F24-C420C04F70F9}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
     <col min="7" max="7" width="4.625" customWidth="1"/>
     <col min="8" max="8" width="3.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
@@ -657,55 +657,55 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
       </c>
       <c r="R1" t="s">
         <v>1</v>
@@ -714,10 +714,10 @@
         <v>2</v>
       </c>
       <c r="T1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="V1" t="s">
         <v>3</v>
@@ -726,22 +726,22 @@
         <v>5</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AC1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>45200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -767,7 +767,7 @@
         <v>20492092313</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K2">
         <v>19.91</v>
@@ -814,10 +814,10 @@
         <v>45209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>566</v>
@@ -829,7 +829,7 @@
         <v>10427447711</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>45210</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>198505</v>
@@ -891,7 +891,7 @@
         <v>20555881551</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>-15.21</v>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="Z4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB4">
         <v>310332</v>
